--- a/data/trans_orig/P04B3_2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B86A443-D207-47F8-A16F-E9870E23FADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1438A86-672D-42F4-BC24-390113FBD8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD3A958C-0EF3-4B9E-BB9C-0901618A7481}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8FE01019-9D86-4180-A1ED-64677311D3E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
   <si>
     <t>Población según si percibe la temperatura en la vivienda durante el invierno como un problema en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>25,47%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
   </si>
   <si>
     <t>26,04%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
   </si>
   <si>
     <t>A veces</t>
@@ -104,25 +104,25 @@
     <t>16,58%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>17,39%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>15,39%</t>
+    <t>15,46%</t>
   </si>
   <si>
     <t>18,92%</t>
@@ -134,10 +134,10 @@
     <t>16,64%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>18,95%</t>
@@ -146,16 +146,16 @@
     <t>16,83%</t>
   </si>
   <si>
-    <t>21,45%</t>
+    <t>21,47%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>Nunca/No</t>
@@ -164,28 +164,28 @@
     <t>41,32%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
   </si>
   <si>
     <t>37,24%</t>
   </si>
   <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,19 +197,25 @@
     <t>20,46%</t>
   </si>
   <si>
-    <t>22,57%</t>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>22,01%</t>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>20,04%</t>
   </si>
   <si>
-    <t>18,2%</t>
+    <t>18,19%</t>
   </si>
   <si>
     <t>21,75%</t>
@@ -218,34 +224,34 @@
     <t>13,42%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
   </si>
   <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>17,29%</t>
+    <t>17,33%</t>
   </si>
   <si>
     <t>21,66%</t>
@@ -254,46 +260,46 @@
     <t>16,6%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>46,55%</t>
   </si>
   <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
   </si>
   <si>
     <t>50,82%</t>
   </si>
   <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
   </si>
   <si>
     <t>48,73%</t>
   </si>
   <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -302,52 +308,52 @@
     <t>13,99%</t>
   </si>
   <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
   </si>
   <si>
     <t>12,04%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
   </si>
   <si>
     <t>12,31%</t>
   </si>
   <si>
-    <t>10,61%</t>
+    <t>10,65%</t>
   </si>
   <si>
     <t>14,05%</t>
@@ -356,163 +362,163 @@
     <t>19,39%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
   </si>
   <si>
     <t>19,03%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>53,1%</t>
   </si>
   <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
   </si>
   <si>
     <t>57,77%</t>
   </si>
   <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
   </si>
   <si>
     <t>55,5%</t>
   </si>
   <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
   </si>
   <si>
     <t>19,97%</t>
   </si>
   <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
   </si>
   <si>
     <t>19,83%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
   <si>
     <t>13,58%</t>
   </si>
   <si>
-    <t>12,07%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
   </si>
   <si>
     <t>47,02%</t>
   </si>
   <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
   </si>
   <si>
     <t>49,14%</t>
   </si>
   <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
   </si>
   <si>
     <t>48,14%</t>
   </si>
   <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB40C8EE-7181-40B2-AB4E-022694CDFBF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22E0E34-1D31-465C-9933-E8D3C6FE92E8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1311,10 +1317,10 @@
         <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>521</v>
@@ -1323,13 +1329,13 @@
         <v>441613</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>947</v>
@@ -1338,13 +1344,13 @@
         <v>883959</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1359,13 +1365,13 @@
         <v>290128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>383</v>
@@ -1374,13 +1380,13 @@
         <v>290776</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>651</v>
@@ -1389,13 +1395,13 @@
         <v>580904</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,13 +1416,13 @@
         <v>423032</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>500</v>
@@ -1425,13 +1431,13 @@
         <v>373073</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>866</v>
@@ -1440,13 +1446,13 @@
         <v>796105</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1461,13 +1467,13 @@
         <v>1006516</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1514</v>
@@ -1476,13 +1482,13 @@
         <v>1142542</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2446</v>
@@ -1491,13 +1497,13 @@
         <v>2149058</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,7 +1559,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1565,13 +1571,13 @@
         <v>94132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>110</v>
@@ -1580,13 +1586,13 @@
         <v>85752</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>199</v>
@@ -1595,13 +1601,13 @@
         <v>179884</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,13 +1622,13 @@
         <v>90959</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>119</v>
@@ -1631,13 +1637,13 @@
         <v>79465</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>206</v>
@@ -1646,13 +1652,13 @@
         <v>170424</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,13 +1673,13 @@
         <v>130495</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>188</v>
@@ -1682,13 +1688,13 @@
         <v>135486</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>324</v>
@@ -1697,13 +1703,13 @@
         <v>265982</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1724,13 @@
         <v>357292</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>583</v>
@@ -1733,13 +1739,13 @@
         <v>411366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>951</v>
@@ -1748,13 +1754,13 @@
         <v>768658</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,13 +1828,13 @@
         <v>674421</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>983</v>
@@ -1837,13 +1843,13 @@
         <v>748186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>1671</v>
@@ -1852,13 +1858,13 @@
         <v>1422607</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1879,13 @@
         <v>470879</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>746</v>
@@ -1888,13 +1894,13 @@
         <v>515654</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>1218</v>
@@ -1903,13 +1909,13 @@
         <v>986533</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,16 +1927,16 @@
         <v>621</v>
       </c>
       <c r="D21" s="7">
-        <v>643642</v>
+        <v>643643</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>951</v>
@@ -1939,13 +1945,13 @@
         <v>666999</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>1572</v>
@@ -1954,13 +1960,13 @@
         <v>1310642</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1981,13 @@
         <v>1587592</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>2665</v>
@@ -1990,13 +1996,13 @@
         <v>1865186</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>4247</v>
@@ -2005,13 +2011,13 @@
         <v>3452778</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,7 +2029,7 @@
         <v>3363</v>
       </c>
       <c r="D23" s="7">
-        <v>3376534</v>
+        <v>3376535</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2067,7 +2073,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04B3_2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1438A86-672D-42F4-BC24-390113FBD8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56E0E6AA-5B0B-47C1-A837-5ADDA05BDFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8FE01019-9D86-4180-A1ED-64677311D3E0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3F900A4A-DA8F-40A0-8F29-99A83B35421B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
   <si>
     <t>Población según si percibe la temperatura en la vivienda durante el invierno como un problema en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -71,454 +71,439 @@
     <t>A menudo</t>
   </si>
   <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
   <si>
     <t>A veces</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>Apenas</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>Nunca/No</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>18,92%</t>
   </si>
   <si>
-    <t>Apenas</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>Nunca/No</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>20,46%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>18,35%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -933,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22E0E34-1D31-465C-9933-E8D3C6FE92E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6DE7E7-5FD3-4111-999E-E5BBF2A44654}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1054,7 +1039,7 @@
         <v>173</v>
       </c>
       <c r="D4" s="7">
-        <v>137943</v>
+        <v>122671</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1069,7 +1054,7 @@
         <v>352</v>
       </c>
       <c r="I4" s="7">
-        <v>220821</v>
+        <v>190595</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1084,7 +1069,7 @@
         <v>525</v>
       </c>
       <c r="N4" s="7">
-        <v>358764</v>
+        <v>313266</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1105,7 +1090,7 @@
         <v>117</v>
       </c>
       <c r="D5" s="7">
-        <v>89791</v>
+        <v>83247</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1120,7 +1105,7 @@
         <v>244</v>
       </c>
       <c r="I5" s="7">
-        <v>145413</v>
+        <v>130343</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1135,7 +1120,7 @@
         <v>361</v>
       </c>
       <c r="N5" s="7">
-        <v>235204</v>
+        <v>213590</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1156,7 +1141,7 @@
         <v>119</v>
       </c>
       <c r="D6" s="7">
-        <v>90115</v>
+        <v>85471</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1171,7 +1156,7 @@
         <v>263</v>
       </c>
       <c r="I6" s="7">
-        <v>158440</v>
+        <v>143719</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1186,7 +1171,7 @@
         <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>248555</v>
+        <v>229190</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1207,7 +1192,7 @@
         <v>282</v>
       </c>
       <c r="D7" s="7">
-        <v>223784</v>
+        <v>223550</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1222,7 +1207,7 @@
         <v>568</v>
       </c>
       <c r="I7" s="7">
-        <v>311278</v>
+        <v>290851</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1237,7 +1222,7 @@
         <v>850</v>
       </c>
       <c r="N7" s="7">
-        <v>535062</v>
+        <v>514401</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1258,7 +1243,7 @@
         <v>691</v>
       </c>
       <c r="D8" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1273,7 +1258,7 @@
         <v>1427</v>
       </c>
       <c r="I8" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1288,7 +1273,7 @@
         <v>2118</v>
       </c>
       <c r="N8" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1311,7 +1296,7 @@
         <v>426</v>
       </c>
       <c r="D9" s="7">
-        <v>442346</v>
+        <v>385843</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1326,7 +1311,7 @@
         <v>521</v>
       </c>
       <c r="I9" s="7">
-        <v>441613</v>
+        <v>430251</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1341,7 +1326,7 @@
         <v>947</v>
       </c>
       <c r="N9" s="7">
-        <v>883959</v>
+        <v>816095</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1362,7 +1347,7 @@
         <v>268</v>
       </c>
       <c r="D10" s="7">
-        <v>290128</v>
+        <v>270184</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1377,7 +1362,7 @@
         <v>383</v>
       </c>
       <c r="I10" s="7">
-        <v>290776</v>
+        <v>260737</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1392,7 +1377,7 @@
         <v>651</v>
       </c>
       <c r="N10" s="7">
-        <v>580904</v>
+        <v>530921</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1413,7 +1398,7 @@
         <v>366</v>
       </c>
       <c r="D11" s="7">
-        <v>423032</v>
+        <v>417392</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1428,7 +1413,7 @@
         <v>500</v>
       </c>
       <c r="I11" s="7">
-        <v>373073</v>
+        <v>344924</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1443,7 +1428,7 @@
         <v>866</v>
       </c>
       <c r="N11" s="7">
-        <v>796105</v>
+        <v>762315</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1464,7 +1449,7 @@
         <v>932</v>
       </c>
       <c r="D12" s="7">
-        <v>1006516</v>
+        <v>1216908</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1479,7 +1464,7 @@
         <v>1514</v>
       </c>
       <c r="I12" s="7">
-        <v>1142542</v>
+        <v>1200486</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1494,7 +1479,7 @@
         <v>2446</v>
       </c>
       <c r="N12" s="7">
-        <v>2149058</v>
+        <v>2417394</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1515,7 +1500,7 @@
         <v>1992</v>
       </c>
       <c r="D13" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1530,7 +1515,7 @@
         <v>2918</v>
       </c>
       <c r="I13" s="7">
-        <v>2248004</v>
+        <v>2236398</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1545,7 +1530,7 @@
         <v>4910</v>
       </c>
       <c r="N13" s="7">
-        <v>4410026</v>
+        <v>4526725</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1568,7 +1553,7 @@
         <v>89</v>
       </c>
       <c r="D14" s="7">
-        <v>94132</v>
+        <v>83493</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1583,7 +1568,7 @@
         <v>110</v>
       </c>
       <c r="I14" s="7">
-        <v>85752</v>
+        <v>74131</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1598,7 +1583,7 @@
         <v>199</v>
       </c>
       <c r="N14" s="7">
-        <v>179884</v>
+        <v>157624</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
@@ -1619,7 +1604,7 @@
         <v>87</v>
       </c>
       <c r="D15" s="7">
-        <v>90959</v>
+        <v>84896</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>98</v>
@@ -1628,37 +1613,37 @@
         <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>79465</v>
+        <v>73050</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>206</v>
       </c>
       <c r="N15" s="7">
-        <v>170424</v>
+        <v>157946</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,46 +1655,46 @@
         <v>136</v>
       </c>
       <c r="D16" s="7">
-        <v>130495</v>
+        <v>124309</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>188</v>
       </c>
       <c r="I16" s="7">
-        <v>135486</v>
+        <v>123779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>324</v>
       </c>
       <c r="N16" s="7">
-        <v>265982</v>
+        <v>248088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,46 +1706,46 @@
         <v>368</v>
       </c>
       <c r="D17" s="7">
-        <v>357292</v>
+        <v>353761</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>583</v>
       </c>
       <c r="I17" s="7">
-        <v>411366</v>
+        <v>387796</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>951</v>
       </c>
       <c r="N17" s="7">
-        <v>768658</v>
+        <v>741557</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,7 +1757,7 @@
         <v>680</v>
       </c>
       <c r="D18" s="7">
-        <v>672879</v>
+        <v>646459</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1787,7 +1772,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>712069</v>
+        <v>658756</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1802,7 +1787,7 @@
         <v>1680</v>
       </c>
       <c r="N18" s="7">
-        <v>1384948</v>
+        <v>1305215</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1825,46 +1810,46 @@
         <v>688</v>
       </c>
       <c r="D19" s="7">
-        <v>674421</v>
+        <v>592007</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>983</v>
       </c>
       <c r="I19" s="7">
-        <v>748186</v>
+        <v>694977</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>1671</v>
       </c>
       <c r="N19" s="7">
-        <v>1422607</v>
+        <v>1286984</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,46 +1861,46 @@
         <v>472</v>
       </c>
       <c r="D20" s="7">
-        <v>470879</v>
+        <v>438327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>746</v>
       </c>
       <c r="I20" s="7">
-        <v>515654</v>
+        <v>464130</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>1218</v>
       </c>
       <c r="N20" s="7">
-        <v>986533</v>
+        <v>902457</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,46 +1912,46 @@
         <v>621</v>
       </c>
       <c r="D21" s="7">
-        <v>643643</v>
+        <v>627172</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>951</v>
       </c>
       <c r="I21" s="7">
-        <v>666999</v>
+        <v>612421</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>1572</v>
       </c>
       <c r="N21" s="7">
-        <v>1310642</v>
+        <v>1239593</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,46 +1963,46 @@
         <v>1582</v>
       </c>
       <c r="D22" s="7">
-        <v>1587592</v>
+        <v>1794218</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>2665</v>
       </c>
       <c r="I22" s="7">
-        <v>1865186</v>
+        <v>1879133</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>4247</v>
       </c>
       <c r="N22" s="7">
-        <v>3452778</v>
+        <v>3673352</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,7 +2014,7 @@
         <v>3363</v>
       </c>
       <c r="D23" s="7">
-        <v>3376535</v>
+        <v>3451724</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2044,7 +2029,7 @@
         <v>5345</v>
       </c>
       <c r="I23" s="7">
-        <v>3796025</v>
+        <v>3650662</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2059,7 +2044,7 @@
         <v>8708</v>
       </c>
       <c r="N23" s="7">
-        <v>7172560</v>
+        <v>7102386</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2073,7 +2058,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
